--- a/data_excel/900.xlsx
+++ b/data_excel/900.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\AILAB\project2_extension\example_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82EA027-469A-4D63-B0D9-650DC6DA4148}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12630" yWindow="-555" windowWidth="9900" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12630" yWindow="-555" windowWidth="9900" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>爸爸</t>
   </si>
@@ -140,13 +139,17 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +164,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -178,15 +188,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -488,11 +514,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -676,7 +702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -684,15 +710,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">

--- a/data_excel/900.xlsx
+++ b/data_excel/900.xlsx
@@ -132,9 +132,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
@@ -142,6 +139,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +519,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -565,7 +566,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -714,16 +715,16 @@
       <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
-        <v>37</v>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
